--- a/biology/Botanique/Chlorophytum_comosum/Chlorophytum_comosum.xlsx
+++ b/biology/Botanique/Chlorophytum_comosum/Chlorophytum_comosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante araignée
 Chlorophytum comosum est une espèce de plantes de la famille des Liliaceae selon la classification classique, ou de celle des Asparagaceae selon la classification phylogénétique, originaire d'Afrique du Sud.
 Chlorophytum comosum est sans doute la plus connue du genre Chlorophytum. En effet, de culture facile, elle est largement présente comme plante ornementale d'appartement.
-Une étude[1] réalisée en 1989 par la NASA la classe parmi les plantes dépolluantes, mais son efficacité n'est pas avérée en conditions réalistes[2].
+Une étude réalisée en 1989 par la NASA la classe parmi les plantes dépolluantes, mais son efficacité n'est pas avérée en conditions réalistes.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes formant une rosette dense de longues feuilles effilées, arquées, pointues à l’extrémité, vert franc et vernies. Certains cultivars sont panachés. En grandissant, elles produisent de nombreuses et grosses racines charnues, gorgées d'eau qui leur permettent de résister à la sécheresse. Les petites fleurs, blanches, mesurent environ 1 cm de diamètre et sont composées de 6 tépales. Les hampes florales deviennent des stolons produisant de nombreuses nouvelles plantes qui s'enracinent rapidement.
 </t>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle croît dans de nombreuses régions d'Afrique orientale et du Sud[3] (Éthiopie, Kenya, Tanzanie, Mozambique, Zimbabwe et Afrique du Sud), de l'Ouest et du Centre (Côte d'Ivoire, Nigeria, Cameroun, Congo).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle croît dans de nombreuses régions d'Afrique orientale et du Sud (Éthiopie, Kenya, Tanzanie, Mozambique, Zimbabwe et Afrique du Sud), de l'Ouest et du Centre (Côte d'Ivoire, Nigeria, Cameroun, Congo).
 Originaire d'Afrique, elle a été largement répandue ailleurs dans le monde, notamment comme plante d’intérieur. Elle fut introduite en Europe vers le milieu du XIXe siècle.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce extrêmement facile à cultiver, qui pousse idéalement dans un sol riche et léger, pas trop humide, avec une forte lumière tamisée. Elle s'adapte cependant facilement à tout type de sol, ne nécessite pas beaucoup d'eau et supporte même un manque d'arrosage. Elle n'aime pas la lumière directe du soleil, mais accepte une luminosité importante. En plein soleil, les feuilles pâlissent et tirent sur le jaune. Elle supporte quelques heures des températures avoisinant 0 °C, mais idéalement il faut éviter de descendre en dessous de 5 °C.
 Elle est surtout très simple à multiplier. En effet, une plante mère, même petite, produit de nombreux stolons terminés par une ou plusieurs jeunes plantes. Ces dernières produiront rapidement de courtes racines, on peut alors les transférer dans un terreau léger et humide où, très rapidement, elles produiront des racines.
@@ -609,10 +627,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante possède la propriété d'absorber des polluants de l'air, notamment le monoxyde de carbone et le dioxyde d'azote ainsi que certains composés organiques volatils (COV), comme le méthanal ou le xylène[4].
-La plante araignée n'est pas toxique pour les animaux, et les chats en raffolent[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante possède la propriété d'absorber des polluants de l'air, notamment le monoxyde de carbone et le dioxyde d'azote ainsi que certains composés organiques volatils (COV), comme le méthanal ou le xylène.
+La plante araignée n'est pas toxique pour les animaux, et les chats en raffolent.
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anthericum comosum Thunb.</t>
         </is>
@@ -671,7 +693,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Phalangère
 Phalangium
